--- a/fluxes/meta-data/flux_metadata_15min.xlsx
+++ b/fluxes/meta-data/flux_metadata_15min.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ARTofMELT/process-scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/AOM-WP1-BL/fluxes/meta-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5288F631-12D6-4A4F-8BA6-9506DC847D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C55793-0942-854A-9058-AA9A9B5B3693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17620" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global-attributes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -178,18 +178,12 @@
     <t>15 minutes</t>
   </si>
   <si>
-    <t>CF-1.6</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>timeSeries</t>
   </si>
   <si>
-    <t>aom-flux: uSonic-3 Sonic Anemometer and LI-7500 open path gas analyser</t>
-  </si>
-  <si>
     <t>ARTofMELT</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>i.m.brooks@leeds.ac.uk</t>
   </si>
   <si>
-    <t>Acknowledgement of the following grants is required: ….</t>
-  </si>
-  <si>
     <t>Ice Station</t>
   </si>
   <si>
@@ -217,7 +208,25 @@
     <t>Oden, Arctic Ocean, sea ice</t>
   </si>
   <si>
-    <t>80.02N -2.14E</t>
+    <t>CF-1.8</t>
+  </si>
+  <si>
+    <t>uSonic-3 Sonic Anemometer and LI-7500 open path gas analyser</t>
+  </si>
+  <si>
+    <t>https://github.com/heatherguy/AOM-WP1-BL/tree/main/fluxes</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-5051-1322</t>
+  </si>
+  <si>
+    <t>Acknowledgement of the following grant is required: NERC Standard Grant NE/X000087/1</t>
+  </si>
+  <si>
+    <t>The first ice station was installed on 2023-05-16 19:43 on an ice floe at -2.17 E and 79.99 N, ~ 450 m from the Oden. This station was powered down 2023-05-21 18:45. The second ice station was installed on a different ice floe 2023-05-29 14:11 at 5.02 E and 80.48 N, and powered down 2023-06-11 13:55.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Hz sampling rate on both licor and sonic. Runs 15 mins in length. Run time stamp: start of run. </t>
   </si>
 </sst>
 </file>
@@ -644,8 +653,8 @@
   </sheetPr>
   <dimension ref="A1:M1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
@@ -671,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -679,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -750,7 +759,9 @@
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
@@ -809,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -823,7 +834,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -831,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -839,14 +850,16 @@
         <v>26</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
@@ -861,7 +874,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -869,7 +882,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -885,7 +898,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,7 +906,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -901,7 +914,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -920,9 +933,7 @@
       <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="B36" s="12"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -940,7 +951,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -948,20 +959,24 @@
         <v>41</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
